--- a/modules/ftlua/callOverloads.xlsx
+++ b/modules/ftlua/callOverloads.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/nfs/zfs-student-4/users/2014/ngoguey/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/goinfre/ngoguey/N-puzzle/modules/ftlua/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26660" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30500" windowHeight="26660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="95">
   <si>
     <t xml:space="preserve">PUSHED </t>
   </si>
@@ -77,9 +77,6 @@
     <t>lua</t>
   </si>
   <si>
-    <t>key or val</t>
-  </si>
-  <si>
     <t>62:#define LUA_TNONE</t>
   </si>
   <si>
@@ -116,27 +113,9 @@
     <t>Grid</t>
   </si>
   <si>
-    <t>convert/alloc</t>
-  </si>
-  <si>
-    <t>as Key for table</t>
-  </si>
-  <si>
-    <t>convertion</t>
-  </si>
-  <si>
     <t>str/nbr/bool</t>
   </si>
   <si>
-    <t>string/int/autre</t>
-  </si>
-  <si>
-    <t>as Key for table or nil</t>
-  </si>
-  <si>
-    <t>str/nbr/bool/nullptr_t</t>
-  </si>
-  <si>
     <t>str/nbr/bool/nil</t>
   </si>
   <si>
@@ -191,31 +170,145 @@
     <t>{}</t>
   </si>
   <si>
-    <t>{table}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">callGFun(lua_State *l, T const &amp;funGKey, ARGS ...additionalArgs) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">callTFun(lua_State *l, T const &amp;funTKey, ARGS ...additionalArgs) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">callTMethod(lua_State *l, T const &amp;methodTKey, ARGS ...additionalArgs) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">callGTabTFun(lua_State *l, T1 const &amp;tabGKey, T2 const &amp;funTKey, ARGS ...additionalArgs) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">callGTabTMethod(lua_State *l, T1 const &amp;tabGKey, T2 const &amp;methodTKey, ARGS ...additionalArgs) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -&gt; PUSH</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -&gt; POP</t>
-  </si>
-  <si>
-    <t>`</t>
+    <t>Vec2&lt;int&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">callGFun(lua_State *l, T const &amp;funGKey, ARGS ...args) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">callTFun(lua_State *l, T const &amp;funTKey, ARGS ...args) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">callTMethod(lua_State *l, T const &amp;methodTKey, ARGS ...args) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">callGTabTFun(lua_State *l, T1 const &amp;tabGKey, T2 const &amp;funTKey, ARGS ...args) </t>
+  </si>
+  <si>
+    <t>_G[tabGKey].funTKey(args);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">callGTabTMethod(lua_State *l, T1 const &amp;tabGKey, T2 const &amp;methodTKey, ARGS ...args) </t>
+  </si>
+  <si>
+    <t>_G[tabGKey]:methodTKey(args);</t>
+  </si>
+  <si>
+    <t>_G[funGKey](args);</t>
+  </si>
+  <si>
+    <t>Lua repr:</t>
+  </si>
+  <si>
+    <t>Function(Parameters, addiditonalArgs);</t>
+  </si>
+  <si>
+    <t>{Table}</t>
+  </si>
+  <si>
+    <t>Table.methodTKey(args);</t>
+  </si>
+  <si>
+    <t>Table:methodTKey(args);</t>
+  </si>
+  <si>
+    <t>char*/str*/nbr*/bool*</t>
+  </si>
+  <si>
+    <t>nbr^2</t>
+  </si>
+  <si>
+    <t>Vec2&lt;nbr&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -&gt; PUSH PARAMETER</t>
+  </si>
+  <si>
+    <t>alloc&amp;convert</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>pop^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -&gt; POP PARAMETER</t>
+  </si>
+  <si>
+    <t>int^2</t>
+  </si>
+  <si>
+    <t>Canvas::Param</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>_G[k] or nil</t>
+  </si>
+  <si>
+    <t>ftlua::push&lt;true&gt;(T const &amp;v);</t>
+  </si>
+  <si>
+    <t>ftlua::push(T const &amp;v);</t>
+  </si>
+  <si>
+    <t>ftlua::pop</t>
+  </si>
+  <si>
+    <t>template</t>
+  </si>
+  <si>
+    <t>str/nbr/bool/lusrdata/nil</t>
+  </si>
+  <si>
+    <t>make_key("AView");</t>
+  </si>
+  <si>
+    <t>make_key((void*)v, "callbacks", 18);</t>
+  </si>
+  <si>
+    <t>_G['AView']</t>
+  </si>
+  <si>
+    <t>lol(_G[0x4556]['callbacks'][18])</t>
+  </si>
+  <si>
+    <t>call(42, ftlua::make_key((void*)v, "callbacks", 18), "salut");</t>
+  </si>
+  <si>
+    <t>_G[k1]…[kn]</t>
+  </si>
+  <si>
+    <t>to Val</t>
+  </si>
+  <si>
+    <t>to Val or nil</t>
+  </si>
+  <si>
+    <t>from successive Keys</t>
+  </si>
+  <si>
+    <t>from Val</t>
+  </si>
+  <si>
+    <t>to Val^2</t>
+  </si>
+  <si>
+    <t>push(make_key((void*)Val))</t>
+  </si>
+  <si>
+    <t>nullptr ? push(ftlua::nil) : push(*val)</t>
+  </si>
+  <si>
+    <t>str/nbr/bool/void*/ftlua::nil_t</t>
+  </si>
+  <si>
+    <t>ftlua::Key&lt;Any&gt;</t>
   </si>
 </sst>
 </file>
@@ -231,7 +324,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,6 +361,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -281,13 +380,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,96 +665,168 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:K39"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="144" zoomScaleNormal="144" zoomScalePageLayoutView="144" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A2" zoomScale="144" zoomScaleNormal="144" zoomScalePageLayoutView="144" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="6" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" customWidth="1"/>
+    <col min="3" max="3" width="33.5" customWidth="1"/>
+    <col min="4" max="5" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
+    </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>12</v>
+      <c r="J3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
       <c r="K7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="J8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" t="s">
         <v>47</v>
-      </c>
-      <c r="K8" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>9</v>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="K9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C10" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K11" t="s">
-        <v>49</v>
+        <v>34</v>
+      </c>
+      <c r="J10" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>2</v>
+      <c r="B12" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>8</v>
@@ -663,21 +835,18 @@
         <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="K12" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>2</v>
+      <c r="B13" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>8</v>
@@ -689,272 +858,345 @@
         <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J13" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K13" t="s">
-        <v>56</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J14" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" t="s">
-        <v>42</v>
+      <c r="J15" t="s">
+        <v>57</v>
       </c>
       <c r="K15" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H16" t="s">
-        <v>43</v>
-      </c>
-      <c r="J16" t="s">
-        <v>47</v>
-      </c>
-      <c r="K16" t="s">
-        <v>55</v>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="J17" t="s">
-        <v>46</v>
+      <c r="B17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" t="s">
+        <v>79</v>
       </c>
       <c r="K17" t="s">
-        <v>57</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" t="s">
+        <v>39</v>
+      </c>
       <c r="K19" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" t="s">
+        <v>21</v>
+      </c>
       <c r="J20" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="K20" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="G21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" t="s">
+        <v>74</v>
+      </c>
+      <c r="J23" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
         <v>23</v>
       </c>
-      <c r="J21" t="s">
-        <v>46</v>
-      </c>
-      <c r="K21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="G22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="G23" t="s">
-        <v>22</v>
-      </c>
-      <c r="K23" t="s">
+      <c r="J24" t="s">
+        <v>39</v>
+      </c>
+      <c r="K24" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="J24" t="s">
-        <v>47</v>
-      </c>
-      <c r="K24" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="J25" t="s">
+        <v>57</v>
+      </c>
+      <c r="K25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K27" t="s">
         <v>46</v>
       </c>
-      <c r="K25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="J28" t="s">
+        <v>40</v>
+      </c>
+      <c r="K28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" t="s">
         <v>14</v>
       </c>
-      <c r="C26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" t="s">
-        <v>2</v>
-      </c>
-      <c r="G27" t="s">
-        <v>18</v>
-      </c>
-      <c r="K27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" t="s">
-        <v>2</v>
-      </c>
-      <c r="G28" t="s">
-        <v>19</v>
-      </c>
-      <c r="J28" t="s">
-        <v>47</v>
-      </c>
-      <c r="K28" t="s">
+      <c r="J29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K29" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" t="s">
-        <v>21</v>
-      </c>
-      <c r="J29" t="s">
-        <v>46</v>
-      </c>
-      <c r="K29" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30" t="s">
+        <v>57</v>
+      </c>
+      <c r="K30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" t="s">
+        <v>48</v>
+      </c>
+      <c r="G31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>76</v>
+      </c>
+      <c r="G38" t="s">
         <v>17</v>
       </c>
-      <c r="E30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="G32" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="G33" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B34" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" t="s">
-        <v>62</v>
-      </c>
-      <c r="E34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35" t="s">
-        <v>28</v>
-      </c>
-      <c r="E35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E36" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>33</v>
-      </c>
-      <c r="D37" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="G38" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>75</v>
+      </c>
       <c r="G39" t="s">
-        <v>27</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>77</v>
+      </c>
+      <c r="F40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" t="s">
+        <v>71</v>
+      </c>
+      <c r="E41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/modules/ftlua/callOverloads.xlsx
+++ b/modules/ftlua/callOverloads.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30500" windowHeight="26660" tabRatio="500"/>
+    <workbookView xWindow="80" yWindow="1120" windowWidth="30500" windowHeight="26660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -308,7 +308,7 @@
     <t>str/nbr/bool/void*/ftlua::nil_t</t>
   </si>
   <si>
-    <t>ftlua::Key&lt;Any&gt;</t>
+    <t>ftlua::Keys&lt;Any&gt;</t>
   </si>
 </sst>
 </file>
@@ -667,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A2" zoomScale="144" zoomScaleNormal="144" zoomScalePageLayoutView="144" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="144" zoomScaleNormal="144" zoomScalePageLayoutView="144" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -765,6 +765,21 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
       <c r="J8" t="s">
         <v>40</v>
       </c>
@@ -773,21 +788,6 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" t="s">
-        <v>33</v>
-      </c>
       <c r="J9" t="s">
         <v>39</v>
       </c>
@@ -805,14 +805,11 @@
       <c r="C10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J10" t="s">
         <v>57</v>
@@ -821,22 +818,27 @@
         <v>56</v>
       </c>
     </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+    </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" t="s">
-        <v>35</v>
-      </c>
       <c r="K12" t="s">
         <v>43</v>
       </c>

--- a/modules/ftlua/callOverloads.xlsx
+++ b/modules/ftlua/callOverloads.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="1120" windowWidth="30500" windowHeight="26660" tabRatio="500"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="30500" windowHeight="26660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="94">
   <si>
     <t xml:space="preserve">PUSHED </t>
   </si>
@@ -50,18 +50,9 @@
     <t>CPP PARAMS</t>
   </si>
   <si>
-    <t>T const &amp;funTabKey</t>
-  </si>
-  <si>
     <t>nparams on the stack</t>
   </si>
   <si>
-    <t>T const &amp;funGlobalKey</t>
-  </si>
-  <si>
-    <t>T const &amp;tabGlobalKey</t>
-  </si>
-  <si>
     <t>Table repushed</t>
   </si>
   <si>
@@ -131,9 +122,6 @@
     <t>callTMethod</t>
   </si>
   <si>
-    <t>callGTabTFun</t>
-  </si>
-  <si>
     <t>callGTabTMethod</t>
   </si>
   <si>
@@ -309,6 +297,15 @@
   </si>
   <si>
     <t>ftlua::Keys&lt;Any&gt;</t>
+  </si>
+  <si>
+    <t>ftlua::Keys&lt;ARGS...&gt; const &amp;funTabKeys</t>
+  </si>
+  <si>
+    <t>ftlua::Keys&lt;ARGS...&gt; const &amp;methodTabKeys</t>
+  </si>
+  <si>
+    <t>ftlua::Keys&lt;ARGS...&gt; const &amp;tabGlobalKeys</t>
   </si>
 </sst>
 </file>
@@ -667,14 +664,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="144" zoomScaleNormal="144" zoomScalePageLayoutView="144" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A3" zoomScale="144" zoomScaleNormal="144" zoomScalePageLayoutView="144" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1"/>
     <col min="3" max="3" width="33.5" customWidth="1"/>
     <col min="4" max="5" width="21.33203125" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
@@ -692,39 +689,39 @@
         <v>7</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="J3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="J5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -738,109 +735,92 @@
         <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" t="s">
-        <v>32</v>
-      </c>
       <c r="K7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>11</v>
+      <c r="B8" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" t="s">
         <v>35</v>
       </c>
-      <c r="J8" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="J9" t="s">
+      <c r="K9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" t="s">
         <v>39</v>
-      </c>
-      <c r="K9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K12" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -848,266 +828,266 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" t="s">
         <v>36</v>
       </c>
-      <c r="J13" t="s">
-        <v>40</v>
-      </c>
       <c r="K13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="J14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="J15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K15" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D17" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E17" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D18" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E18" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G18" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J18" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D19" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G19" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J19" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K19" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G20" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J20" t="s">
+        <v>53</v>
+      </c>
+      <c r="K20" t="s">
         <v>57</v>
-      </c>
-      <c r="K20" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="G21" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="K22" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D23" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E23" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J23" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K23" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D24" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E24" t="s">
         <v>2</v>
       </c>
       <c r="G24" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J24" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K24" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="J25" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K25" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="K27" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="J28" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K28" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E29" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J29" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K29" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E30" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J30" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K30" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D31" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E31" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G31" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -1115,10 +1095,10 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E33" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -1126,79 +1106,79 @@
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E34" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G35" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G36" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E37" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G38" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G39" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F40" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D41" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E41" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C45" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C46" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
